--- a/src/data/polymer_evaporation.xlsx
+++ b/src/data/polymer_evaporation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DocumentAll\Research\2-Polymer\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14407\Documents\GitHub\Polymer\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8F36D6-077B-4E39-9812-861C21E3595E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81030FAC-8049-41CD-AB2B-C7E79AC98412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="3255" windowWidth="19200" windowHeight="11340" xr2:uid="{E834531C-69FF-4871-B001-224ACE17D463}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E834531C-69FF-4871-B001-224ACE17D463}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,16 +512,16 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -587,11 +587,10 @@
         <v>0.10400000000000001</v>
       </c>
       <c r="J2">
-        <f>0.000000000000002</f>
-        <v>2.0000000000000002E-15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -622,11 +621,10 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J6" si="1">0.000000000000002</f>
-        <v>2.0000000000000002E-15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -657,11 +655,10 @@
         <v>0.312</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000002E-15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -692,11 +689,10 @@
         <v>0.41600000000000004</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000002E-15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -727,11 +723,10 @@
         <v>0.52</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000002E-15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -765,7 +760,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -799,7 +794,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -833,7 +828,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -867,7 +862,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>18</v>
       </c>
